--- a/Exoplanets/55Cnc_e/epsilon (our work) - facula.xlsx
+++ b/Exoplanets/55Cnc_e/epsilon (our work) - facula.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\55Cnc_e\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\StarsAndExoplanets\Exoplanets\55Cnc_e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D6FCD4-9499-40E4-8ED9-9163EE6D021E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9093208E-860B-43F8-9998-12DDEF29BB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B03C4DF2-FAEC-4EF6-943A-87F64C26D3A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B03C4DF2-FAEC-4EF6-943A-87F64C26D3A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>phot</t>
   </si>
@@ -58,6 +69,15 @@
   </si>
   <si>
     <t>epsilon(f=10%)</t>
+  </si>
+  <si>
+    <t>e8%</t>
+  </si>
+  <si>
+    <t>e10%</t>
+  </si>
+  <si>
+    <t>wav</t>
   </si>
 </sst>
 </file>
@@ -101,10 +121,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -122,6 +143,1948 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>t = 100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>417.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>486.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>521.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>563.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>588.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>664.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>689.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>790.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>841.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>891.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>942.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>967.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>992.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1312</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1566</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1623</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.98504098792324779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98657550068732325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98782269140611934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98888023154769367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98974821053688888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98992664291585097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99043098141057706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99092244314226863</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9913470391739726</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9917548915854516</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99208172598610722</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99241067311562425</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99270157024699357</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99296775720247976</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99320795276679474</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99343627999075423</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99365522679548846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99385346227500937</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99403107120445788</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99419189046034262</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99434053491512953</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9944840387877909</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99460562724556378</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99473506866044747</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99493609594636223</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99509410700866974</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99523679790109787</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99537960980706808</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99551392958442941</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99564413430031362</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99576486394558805</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99588074338818744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99600644844595221</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99612024108423458</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99623661060914015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99634692342852726</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99645148018871499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99653347658484037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99662146722864831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4021-419A-8354-6ADC2FD3EFFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>t = 300</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>417.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>486.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>521.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>563.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>588.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>664.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>689.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>790.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>841.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>891.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>942.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>967.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>992.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1312</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1566</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1623</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.97141853973259129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97389625505791788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97604527912801764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97793915044228874</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97946068205023751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97976905225665656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98071358511783158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98161044416064402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9824011487079608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98313477446597453</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98378462243364673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98440079984159468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98495009878324935</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98545462188306199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9859281739048299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98637080272215105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98677765152054375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98714812546191266</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98749624806495828</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9878199970588093</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98812356059426254</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98840129735693083</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9886647604046116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98891570726472344</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98930484155219101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98961886142651745</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98992012761338755</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99020623051248724</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99047892227579115</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99073522075137022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99098345158574996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99121056568847143</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99144404800469266</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9916612205774612</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9918749393316918</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99207653855961142</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99227298739346936</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99244936805698913</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99262444779805248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4021-419A-8354-6ADC2FD3EFFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>t= 100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>417.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>486.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>521.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>563.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>588.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>664.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>689.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>790.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>841.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>891.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>942.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>967.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>992.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1312</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1566</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1623</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.98146063198732469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98334703907317178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98488392973341143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98618989174067362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98726125080641924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98748155445954233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98810529653288881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9887131849283376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98923869828196054</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98974325419581077</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99014854734777491</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99055606895761805</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99091654446083632</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99124649576883006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99154449250164189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99182774091582193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99209915796951698</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99234498960731587</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99256540072857491</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99276516242906754</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99294986712613842</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99312795242586438</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.993279265900471</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99343995654074935</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99368957693976911</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99388585188008183</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9940633926941278</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99424089217244904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99440788652809431</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99456965944463993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99471986368121368</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99486388880832088</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99502000527514556</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99516138229814077</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99530596695332141</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99544293993852462</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9955729196132731</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99567504258993134</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99578464825370894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4021-419A-8354-6ADC2FD3EFFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>t= 300</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>417.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>486.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>521.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>563.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>588.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>664.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>689.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>790.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>841.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>891.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>942.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>967.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>992.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1312</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1566</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1623</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.96481389994535216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96783179954000254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97045169167454848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97275912833667499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97462014816864562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97499705731905828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97615432360722254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97725199458505996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9782209734606172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97912015611036851</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97991833722886246</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98067445639936512</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98134926005358447</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98196940112571118</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98255227165607284</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98309683362564571</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98359719335160434</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98405290107408783</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98448228115108549</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98488166917060294</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98525633930592327</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98559909977755755</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98592491537779769</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98623462259182004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98671466945756925</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98710284457112674</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9874757121287514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.98782947210670358</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98816698645493828</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98848412588043366</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98879135205434521</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98907226245641333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.98936049124264069</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.98962881025566407</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.98989231053783633</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99014079945649469</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9903831172274179</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99060190517801705</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99081839692599527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4021-419A-8354-6ADC2FD3EFFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1810247759"/>
+        <c:axId val="1892546607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1810247759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1892546607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1892546607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810247759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8126769-BB81-133E-08AF-7704BE1D4D5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,18 +2387,18 @@
   <dimension ref="A1:AM60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="M2" sqref="M2:M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,24 +2432,42 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>386.14638700118496</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>384.66454671060001</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>383.20858243523003</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>381.77689279539351</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>380.37001853464</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>378.98747702580505</v>
       </c>
       <c r="G2" s="1">
@@ -509,11 +2490,26 @@
         <f>F2/A2</f>
         <v>0.98146063198732469</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="M2" s="4">
+        <v>417.7</v>
+      </c>
+      <c r="N2" s="4">
+        <v>386.14638700118496</v>
+      </c>
+      <c r="O2" s="4">
+        <v>375.10975938370717</v>
+      </c>
+      <c r="P2">
+        <f>O2/N2</f>
+        <v>0.97141853973259129</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>372.5594015924205</v>
+      </c>
+      <c r="R2" s="1">
+        <f>Q2/N2</f>
+        <v>0.96481389994535216</v>
+      </c>
       <c r="S2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -529,23 +2525,23 @@
       <c r="AI2" s="1"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>378.79521892925095</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>377.49436873657999</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>376.21379631725</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>374.95218170491285</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>373.71008277308999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>372.48715694915279</v>
       </c>
       <c r="G3" s="1">
@@ -568,11 +2564,26 @@
         <f t="shared" ref="K3:K40" si="4">F3/A3</f>
         <v>0.98334703907317178</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="2"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="M3" s="4">
+        <v>452.1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>378.79521892925095</v>
+      </c>
+      <c r="O3" s="4">
+        <v>368.90724514904161</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P40" si="5">O3/N3</f>
+        <v>0.97389625505791788</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>366.6100583934462</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R40" si="6">Q3/N3</f>
+        <v>0.96783179954000254</v>
+      </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="Y3" s="1"/>
@@ -583,23 +2594,23 @@
       <c r="AH3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>372.48527334610151</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>371.32731556455002</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>370.18582574676998</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>369.05967351119619</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>367.94940522589002</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>366.8547597809324</v>
       </c>
       <c r="G4" s="1">
@@ -622,11 +2633,26 @@
         <f t="shared" si="4"/>
         <v>0.98488392973341143</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="2"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="M4" s="4">
+        <v>486.8</v>
+      </c>
+      <c r="N4" s="4">
+        <v>372.48527334610151</v>
+      </c>
+      <c r="O4" s="4">
+        <v>363.5624925941716</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>0.97604527912801764</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>361.47896364258082</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97045169167454848</v>
+      </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="Y4" s="1"/>
@@ -637,23 +2663,23 @@
       <c r="AH4" s="1"/>
       <c r="AM4" s="1"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>365.9174556086553</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>364.88023975501</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>363.85675812100999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>362.84602040970174</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>361.84853822962998</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>360.86409593272253</v>
       </c>
       <c r="G5" s="1">
@@ -676,11 +2702,26 @@
         <f t="shared" si="4"/>
         <v>0.98618989174067362</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="2"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="M5" s="4">
+        <v>521.5</v>
+      </c>
+      <c r="N5" s="4">
+        <v>365.9174556086553</v>
+      </c>
+      <c r="O5" s="4">
+        <v>357.84500566993228</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>0.97793915044228874</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>355.94954516104951</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97275912833667499</v>
+      </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="Y5" s="1"/>
@@ -691,23 +2732,23 @@
       <c r="AH5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>361.25902766448451</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>360.31642887279997</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>359.38532825697001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>358.46484760637674</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>357.55547617121999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>356.65703951714977</v>
       </c>
       <c r="G6" s="1">
@@ -730,11 +2771,26 @@
         <f t="shared" si="4"/>
         <v>0.98726125080641924</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="2"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="M6" s="4">
+        <v>556</v>
+      </c>
+      <c r="N6" s="4">
+        <v>361.25902766448451</v>
+      </c>
+      <c r="O6" s="4">
+        <v>353.8390136330616</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0.97946068205023751</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>352.09032706962074</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97462014816864562</v>
+      </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="Y6" s="1"/>
@@ -745,23 +2801,23 @@
       <c r="AH6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>360.08199993575738</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>359.15913974648998</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>358.24732800282999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>357.34570841350342</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>356.45476537082999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>355.57433302946254</v>
       </c>
       <c r="G7" s="1">
@@ -784,11 +2840,26 @@
         <f t="shared" si="4"/>
         <v>0.98748155445954233</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="2"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="M7" s="4">
+        <v>563.5</v>
+      </c>
+      <c r="N7" s="4">
+        <v>360.08199993575738</v>
+      </c>
+      <c r="O7" s="4">
+        <v>352.79719981173849</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0.97976905225665656</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>351.07889033092476</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97499705731905828</v>
+      </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="Y7" s="1"/>
@@ -799,23 +2870,23 @@
       <c r="AH7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>357.68999558283275</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>356.81982853519003</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>355.95963707558002</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>355.10862393817177</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>354.26725336585002</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>353.43537915222265</v>
       </c>
       <c r="G8" s="1">
@@ -838,11 +2909,26 @@
         <f t="shared" si="4"/>
         <v>0.98810529653288881</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="2"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="M8" s="4">
+        <v>588.40000000000009</v>
+      </c>
+      <c r="N8" s="4">
+        <v>357.68999558283275</v>
+      </c>
+      <c r="O8" s="4">
+        <v>350.79143792882127</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>0.98071358511783158</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>349.16063569923051</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97615432360722254</v>
+      </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="Y8" s="1"/>
@@ -853,23 +2939,23 @@
       <c r="AH8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>354.5517546411636</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>353.73417841100002</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>352.92553962207</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>352.12509575222037</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>351.33329092939999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>350.54999455319535</v>
       </c>
       <c r="G9" s="1">
@@ -892,11 +2978,26 @@
         <f t="shared" si="4"/>
         <v>0.9887131849283376</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="2"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="M9" s="4">
+        <v>614</v>
+      </c>
+      <c r="N9" s="4">
+        <v>354.5517546411636</v>
+      </c>
+      <c r="O9" s="4">
+        <v>348.03170535124826</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>0.98161044416064402</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>346.48640940670992</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97725199458505996</v>
+      </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="Y9" s="1"/>
@@ -907,23 +3008,23 @@
       <c r="AH9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>351.96243908730548</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>351.18931749689</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>350.42430183452001</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>349.66669450120503</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>348.91692188964998</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>348.17486508686989</v>
       </c>
       <c r="G10" s="1">
@@ -946,11 +3047,26 @@
         <f t="shared" si="4"/>
         <v>0.98923869828196054</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="2"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="M10" s="4">
+        <v>639</v>
+      </c>
+      <c r="N10" s="4">
+        <v>351.96243908730548</v>
+      </c>
+      <c r="O10" s="4">
+        <v>345.76830446142458</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>0.9824011487079608</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>344.29703978555716</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.9782209734606172</v>
+      </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="Y10" s="1"/>
@@ -961,23 +3077,23 @@
       <c r="AH10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>349.09762169765821</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>348.36750911738</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>347.64467105441003</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>346.9284568147213</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>346.21927395950001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>345.51701613105831</v>
       </c>
       <c r="G11" s="1">
@@ -1000,11 +3116,26 @@
         <f t="shared" si="4"/>
         <v>0.98974325419581077</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="2"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="M11" s="4">
+        <v>664.6</v>
+      </c>
+      <c r="N11" s="4">
+        <v>349.09762169765821</v>
+      </c>
+      <c r="O11" s="4">
+        <v>343.21001157433528</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>0.98313477446597453</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>341.80851785436948</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97912015611036851</v>
+      </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="Y11" s="1"/>
@@ -1015,23 +3146,23 @@
       <c r="AH11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>347.52434025298038</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>346.82660083439998</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>346.13563366136998</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>345.45081837145108</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>344.77254730035997</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>344.10072066948237</v>
       </c>
       <c r="G12" s="1">
@@ -1054,11 +3185,26 @@
         <f t="shared" si="4"/>
         <v>0.99014854734777491</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="2"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="M12" s="4">
+        <v>689.5</v>
+      </c>
+      <c r="N12" s="4">
+        <v>347.52434025298038</v>
+      </c>
+      <c r="O12" s="4">
+        <v>341.88910186228048</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>0.98378462243364673</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>340.54547364725795</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97991833722886246</v>
+      </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="Y12" s="1"/>
@@ -1069,23 +3215,23 @@
       <c r="AH12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>345.23503322503313</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>344.57104987917</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>343.91327017357997</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>343.26110549454114</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>342.61493170595003</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>341.97465737784148</v>
       </c>
       <c r="G13" s="1">
@@ -1108,11 +3254,26 @@
         <f t="shared" si="4"/>
         <v>0.99055606895761805</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="2"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="M13" s="4">
+        <v>715</v>
+      </c>
+      <c r="N13" s="4">
+        <v>345.23503322503313</v>
+      </c>
+      <c r="O13" s="4">
+        <v>339.84964284006213</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>0.98440079984159468</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>338.56317853797611</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98067445639936512</v>
+      </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="Y13" s="1"/>
@@ -1123,23 +3284,23 @@
       <c r="AH13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>343.31884701344075</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>342.68417333883002</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>342.05522101948998</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>341.43142827736119</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>340.81315852563</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>340.20032553083723</v>
       </c>
       <c r="G14" s="1">
@@ -1162,11 +3323,26 @@
         <f t="shared" si="4"/>
         <v>0.99091654446083632</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="2"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="M14" s="4">
+        <v>740</v>
+      </c>
+      <c r="N14" s="4">
+        <v>343.31884701344075</v>
+      </c>
+      <c r="O14" s="4">
+        <v>338.15193228003972</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>0.98495009878324935</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>336.91569647908983</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98134926005358447</v>
+      </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="Y14" s="1"/>
@@ -1177,23 +3353,23 @@
       <c r="AH14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>341.56508325144944</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>340.95695841051997</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>340.35413147071</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>339.75606762748356</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>339.16311465487001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>338.57519184998796</v>
       </c>
       <c r="G15" s="1">
@@ -1216,11 +3392,26 @@
         <f t="shared" si="4"/>
         <v>0.99124649576883006</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="2"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="M15" s="4">
+        <v>765</v>
+      </c>
+      <c r="N15" s="4">
+        <v>341.56508325144944</v>
+      </c>
+      <c r="O15" s="4">
+        <v>336.59688996401371</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>0.98545462188306199</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>335.40646024587949</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98196940112571118</v>
+      </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="Y15" s="1"/>
@@ -1231,23 +3422,23 @@
       <c r="AH15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>340.25827697392594</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>339.67337592033999</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>339.09343433125002</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>338.51793897887728</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>337.94722668523002</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>337.38122056159449</v>
       </c>
       <c r="G16" s="1">
@@ -1270,11 +3461,26 @@
         <f t="shared" si="4"/>
         <v>0.99154449250164189</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="2"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="M16" s="4">
+        <v>790.5</v>
+      </c>
+      <c r="N16" s="4">
+        <v>340.25827697392594</v>
+      </c>
+      <c r="O16" s="4">
+        <v>335.47022167290663</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>0.9859281739048299</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>334.32154299051217</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98255227165607284</v>
+      </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="Y16" s="1"/>
@@ -1285,23 +3491,23 @@
       <c r="AH16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>338.74686140100698</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>338.18433970888998</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>337.62645122126003</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>337.07270367921984</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>336.52342184875999</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>335.97853428568578</v>
       </c>
       <c r="G17" s="1">
@@ -1324,11 +3530,26 @@
         <f t="shared" si="4"/>
         <v>0.99182774091582193</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="2"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="M17" s="4">
+        <v>816</v>
+      </c>
+      <c r="N17" s="4">
+        <v>338.74686140100698</v>
+      </c>
+      <c r="O17" s="4">
+        <v>334.13001359972048</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>0.98637080272215105</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>333.02096684395542</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98309683362564571</v>
+      </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="Y17" s="1"/>
@@ -1339,23 +3560,23 @@
       <c r="AH17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>337.01199303382003</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>336.47126281378002</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>335.93482579186002</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>335.40220960970311</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>334.87372837082</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>334.34931451448159</v>
       </c>
       <c r="G18" s="1">
@@ -1378,11 +3599,26 @@
         <f t="shared" si="4"/>
         <v>0.99209915796951698</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="2"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="M18" s="4">
+        <v>841.30000000000007</v>
+      </c>
+      <c r="N18" s="4">
+        <v>337.01199303382003</v>
+      </c>
+      <c r="O18" s="4">
+        <v>332.55590302017077</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>0.98677765152054375</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>331.48405047389582</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98359719335160434</v>
+      </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="Y18" s="1"/>
@@ -1393,23 +3629,23 @@
       <c r="AH18" s="1"/>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>335.39282834016416</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>334.87171674672999</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>334.35460539677001</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>333.84103954803288</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>333.33132366808002</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>332.82539275358846</v>
       </c>
       <c r="G19" s="1">
@@ -1432,11 +3668,26 @@
         <f t="shared" si="4"/>
         <v>0.99234498960731587</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="2"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="M19" s="4">
+        <v>866</v>
+      </c>
+      <c r="N19" s="4">
+        <v>335.39282834016416</v>
+      </c>
+      <c r="O19" s="4">
+        <v>331.08240178936211</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>0.98714812546191266</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>330.04428572758206</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98405290107408783</v>
+      </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="Y19" s="1"/>
@@ -1447,23 +3698,23 @@
       <c r="AH19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>334.44069197241521</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>333.93623487564997</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>333.43554390207998</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>332.93818018631515</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>332.44443929570002</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>331.9542594475422</v>
       </c>
       <c r="G20" s="1">
@@ -1486,11 +3737,26 @@
         <f t="shared" si="4"/>
         <v>0.99256540072857491</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="M20" s="4">
+        <v>891.59999999999991</v>
+      </c>
+      <c r="N20" s="4">
+        <v>334.44069197241521</v>
+      </c>
+      <c r="O20" s="4">
+        <v>330.25892852300842</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>0.98749624806495828</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>329.25093534275084</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98448228115108549</v>
+      </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="Y20" s="1"/>
@@ -1501,23 +3767,23 @@
       <c r="AH20" s="1"/>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>333.6484009438534</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>333.15880751972003</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>332.67279733951</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>332.18994407113735</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>331.71053448343997</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>331.23450895722328</v>
       </c>
       <c r="G21" s="1">
@@ -1540,11 +3806,26 @@
         <f t="shared" si="4"/>
         <v>0.99276516242906754</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="2"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="M21" s="4">
+        <v>917</v>
+      </c>
+      <c r="N21" s="4">
+        <v>333.6484009438534</v>
+      </c>
+      <c r="O21" s="4">
+        <v>329.58456243903368</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>0.9878199970588093</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>328.60419403768492</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98488166917060294</v>
+      </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="Y21" s="1"/>
@@ -1555,23 +3836,23 @@
       <c r="AH21" s="1"/>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>332.96354504319669</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>332.48755187143001</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>332.01498196811002</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>331.5454214645186</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>331.07914948549001</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>330.61610780849014</v>
       </c>
       <c r="G22" s="1">
@@ -1594,11 +3875,26 @@
         <f t="shared" si="4"/>
         <v>0.99294986712613842</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="2"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="M22" s="4">
+        <v>942.4</v>
+      </c>
+      <c r="N22" s="4">
+        <v>332.96354504319669</v>
+      </c>
+      <c r="O22" s="4">
+        <v>329.00912367617161</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>0.98812356059426254</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>328.05444351158286</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98525633930592327</v>
+      </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="Y22" s="1"/>
@@ -1609,23 +3905,23 @@
       <c r="AH22" s="1"/>
       <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>332.07929920309186</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>331.61674648907001</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>331.15742653422001</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>330.70094148501818</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>330.24756266931001</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>329.79723446058262</v>
       </c>
       <c r="G23" s="1">
@@ -1648,11 +3944,26 @@
         <f t="shared" si="4"/>
         <v>0.99312795242586438</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="2"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="M23" s="4">
+        <v>967.30000000000007</v>
+      </c>
+      <c r="N23" s="4">
+        <v>332.07929920309186</v>
+      </c>
+      <c r="O23" s="4">
+        <v>328.22761015771641</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>0.98840129735693083</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>327.29705834932952</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98559909977755755</v>
+      </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="Y23" s="1"/>
@@ -1663,23 +3974,23 @@
       <c r="AH23" s="1"/>
       <c r="AM23" s="1"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>331.8855227337769</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>331.43346147867999</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>330.98454049784999</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>330.53836800522873</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>330.09520851234998</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>329.65500838399998</v>
       </c>
       <c r="G24" s="1">
@@ -1702,11 +4013,26 @@
         <f t="shared" si="4"/>
         <v>0.993279265900471</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="2"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="M24" s="4">
+        <v>992.7</v>
+      </c>
+      <c r="N24" s="4">
+        <v>331.8855227337769</v>
+      </c>
+      <c r="O24" s="4">
+        <v>328.1235208153488</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>0.9886647604046116</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>327.21420591641515</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98592491537779769</v>
+      </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="Y24" s="1"/>
@@ -1717,23 +4043,23 @@
       <c r="AH24" s="1"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>331.01466213358856</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>330.57472295572001</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>330.13776126100998</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>329.70339865634469</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>329.27189266507003</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>328.84319156434304</v>
       </c>
       <c r="G25" s="1">
@@ -1756,11 +4082,26 @@
         <f t="shared" si="4"/>
         <v>0.99343995654074935</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="2"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="M25" s="4">
+        <v>1018</v>
+      </c>
+      <c r="N25" s="4">
+        <v>331.01466213358856</v>
+      </c>
+      <c r="O25" s="4">
+        <v>327.34559871883118</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>0.98891570726472344</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>326.45812038167855</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98623462259182004</v>
+      </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="Y25" s="1"/>
@@ -1771,23 +4112,23 @@
       <c r="AH25" s="1"/>
       <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>329.45862688760207</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>329.03764523884001</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>328.61940127560001</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>328.20352922402486</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <v>327.7902800114</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>327.37960357109853</v>
       </c>
       <c r="G26" s="1">
@@ -1810,11 +4151,26 @@
         <f t="shared" si="4"/>
         <v>0.99368957693976911</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="2"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="M26" s="4">
+        <v>1060</v>
+      </c>
+      <c r="N26" s="4">
+        <v>329.45862688760207</v>
+      </c>
+      <c r="O26" s="4">
+        <v>325.93501467104159</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>0.98930484155219101</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>325.08166012934493</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98671466945756925</v>
+      </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="Y26" s="1"/>
@@ -1825,23 +4181,23 @@
       <c r="AH26" s="1"/>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>328.60914239685178</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>328.20247455178998</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>327.79836650930997</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>327.39646677781843</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
         <v>326.99702110828002</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>326.59997742667815</v>
       </c>
       <c r="G27" s="1">
@@ -1864,11 +4220,26 @@
         <f t="shared" si="4"/>
         <v>0.99388585188008183</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="2"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="M27" s="4">
+        <v>1098</v>
+      </c>
+      <c r="N27" s="4">
+        <v>328.60914239685178</v>
+      </c>
+      <c r="O27" s="4">
+        <v>325.19780535311679</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>0.98961886142651745</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>324.37101921201082</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98710284457112674</v>
+      </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="Y27" s="1"/>
@@ -1879,23 +4250,23 @@
       <c r="AH27" s="1"/>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>328.2417248821057</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>327.84738648238999</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>327.45548823598</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>327.06569648099924</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
         <v>326.67824320919999</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>326.29308266007848</v>
       </c>
       <c r="G28" s="1">
@@ -1918,11 +4289,26 @@
         <f t="shared" si="4"/>
         <v>0.9940633926941278</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="2"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="M28" s="4">
+        <v>1138</v>
+      </c>
+      <c r="N28" s="4">
+        <v>328.2417248821057</v>
+      </c>
+      <c r="O28" s="4">
+        <v>324.93309018333252</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>0.98992012761338755</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>324.13073102832703</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="6"/>
+        <v>0.9874757121287514</v>
+      </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="Y28" s="1"/>
@@ -1933,23 +4319,23 @@
       <c r="AH28" s="1"/>
       <c r="AM28" s="1"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>327.45905797526564</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>327.07755015858999</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>326.69834296606001</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>326.3211071999894</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
         <v>325.94606935521</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>325.57318595127782</v>
       </c>
       <c r="G29" s="1">
@@ -1972,11 +4358,26 @@
         <f t="shared" si="4"/>
         <v>0.99424089217244904</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="2"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="M29" s="4">
+        <v>1179</v>
+      </c>
+      <c r="N29" s="4">
+        <v>327.45905797526564</v>
+      </c>
+      <c r="O29" s="4">
+        <v>324.2519994448578</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>0.99020623051248724</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>323.47370837626511</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98782947210670358</v>
+      </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="Y29" s="1"/>
@@ -1987,23 +4388,23 @@
       <c r="AH29" s="1"/>
       <c r="AM29" s="1"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>326.89274669106538</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>326.52305292091</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>326.15553773562999</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>325.78987350817545</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
         <v>325.42628281107</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>325.06472535842602</v>
       </c>
       <c r="G30" s="1">
@@ -2026,11 +4427,26 @@
         <f t="shared" si="4"/>
         <v>0.99440788652809431</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="2"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="M30" s="4">
+        <v>1222</v>
+      </c>
+      <c r="N30" s="4">
+        <v>326.89274669106538</v>
+      </c>
+      <c r="O30" s="4">
+        <v>323.78037544233962</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>0.99047892227579115</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>323.02462039168756</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98816698645493828</v>
+      </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="Y30" s="1"/>
@@ -2041,23 +4457,23 @@
       <c r="AH30" s="1"/>
       <c r="AM30" s="1"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>326.15443146732923</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>325.79638616537</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>325.44037842197002</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>325.08609281955978</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
         <v>324.73374656649997</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="1">
         <v>324.38330183082178</v>
       </c>
       <c r="G31" s="1">
@@ -2080,11 +4496,26 @@
         <f t="shared" si="4"/>
         <v>0.99456965944463993</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="2"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="M31" s="4">
+        <v>1266</v>
+      </c>
+      <c r="N31" s="4">
+        <v>326.15443146732923</v>
+      </c>
+      <c r="O31" s="4">
+        <v>323.13268265882209</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="5"/>
+        <v>0.99073522075137022</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>322.39847809101275</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98848412588043366</v>
+      </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="Y31" s="1"/>
@@ -2095,23 +4526,23 @@
       <c r="AH31" s="1"/>
       <c r="AM31" s="1"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>325.6030551689326</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>325.25558648011003</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>324.91005054690999</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>324.56614617026867</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
         <v>324.22408193055998</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="1">
         <v>323.88382665182735</v>
       </c>
       <c r="G32" s="1">
@@ -2134,11 +4565,26 @@
         <f t="shared" si="4"/>
         <v>0.99471986368121368</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="2"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="M32" s="4">
+        <v>1312</v>
+      </c>
+      <c r="N32" s="4">
+        <v>325.6030551689326</v>
+      </c>
+      <c r="O32" s="4">
+        <v>322.66723945817421</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>0.99098345158574996</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>321.95348515351441</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98879135205434521</v>
+      </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="Y32" s="1"/>
@@ -2149,23 +4595,23 @@
       <c r="AH32" s="1"/>
       <c r="AM32" s="1"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>324.83074675226931</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>324.49366768528</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>324.15841547516999</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>323.82468670211216</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>323.49268555099002</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>323.1623799184735</v>
       </c>
       <c r="G33" s="1">
@@ -2188,11 +4634,26 @@
         <f t="shared" si="4"/>
         <v>0.99486388880832088</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="2"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="M33" s="4">
+        <v>1358</v>
+      </c>
+      <c r="N33" s="4">
+        <v>324.83074675226931</v>
+      </c>
+      <c r="O33" s="4">
+        <v>321.97566824132548</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="5"/>
+        <v>0.99121056568847143</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>321.28108160567325</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98907226245641333</v>
+      </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="Y33" s="1"/>
@@ -2203,23 +4664,23 @@
       <c r="AH33" s="1"/>
       <c r="AM33" s="1"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>323.39972826223027</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>323.07450026314001</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>322.75094510659</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>322.42878130328558</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>322.10821477485001</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>321.78919932146499</v>
       </c>
       <c r="G34" s="1">
@@ -2242,11 +4703,26 @@
         <f t="shared" si="4"/>
         <v>0.99502000527514556</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="2"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
+      <c r="M34" s="4">
+        <v>1408</v>
+      </c>
+      <c r="N34" s="4">
+        <v>323.39972826223027</v>
+      </c>
+      <c r="O34" s="4">
+        <v>320.6327357119232</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="5"/>
+        <v>0.99144404800469266</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>319.95891402125665</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98936049124264069</v>
+      </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="Y34" s="1"/>
@@ -2257,23 +4733,23 @@
       <c r="AH34" s="1"/>
       <c r="AM34" s="1"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>322.25219874182363</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>321.93745184727999</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>321.62425941495002</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>321.31236592314315</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <v>321.00193790063003</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="1">
         <v>320.69294354852838</v>
       </c>
       <c r="G35" s="1">
@@ -2296,11 +4772,26 @@
         <f t="shared" si="4"/>
         <v>0.99516138229814077</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="2"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
+      <c r="M35" s="4">
+        <v>1459</v>
+      </c>
+      <c r="N35" s="4">
+        <v>322.25219874182363</v>
+      </c>
+      <c r="O35" s="4">
+        <v>319.56500873808744</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="5"/>
+        <v>0.9916612205774612</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>318.91006004314272</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98962881025566407</v>
+      </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="Y35" s="1"/>
@@ -2311,23 +4802,23 @@
       <c r="AH35" s="1"/>
       <c r="AM35" s="1"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>320.55161361632668</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>320.24803237107</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>319.94589241358</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>319.64490650304708</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="1">
         <v>319.34525307441999</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="1">
         <v>319.0469337488455</v>
       </c>
       <c r="G36" s="1">
@@ -2350,11 +4841,26 @@
         <f t="shared" si="4"/>
         <v>0.99530596695332141</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="2"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
+      <c r="M36" s="4">
+        <v>1512</v>
+      </c>
+      <c r="N36" s="4">
+        <v>320.55161361632668</v>
+      </c>
+      <c r="O36" s="4">
+        <v>317.94711230836992</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="5"/>
+        <v>0.9918749393316918</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>317.31157744929737</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98989231053783633</v>
+      </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="Y36" s="1"/>
@@ -2365,23 +4871,23 @@
       <c r="AH36" s="1"/>
       <c r="AM36" s="1"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>318.80585710908349</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>318.51289613705001</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>318.22123454028002</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>317.93062194973578</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
         <v>317.64123490163001</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="1">
         <v>317.35303967028727</v>
       </c>
       <c r="G37" s="1">
@@ -2404,11 +4910,26 @@
         <f t="shared" si="4"/>
         <v>0.99544293993852462</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="2"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="M37" s="4">
+        <v>1566</v>
+      </c>
+      <c r="N37" s="4">
+        <v>318.80585710908349</v>
+      </c>
+      <c r="O37" s="4">
+        <v>316.27981119330963</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="5"/>
+        <v>0.99207653855961142</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>315.66268622940095</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99014079945649469</v>
+      </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="Y37" s="1"/>
@@ -2419,23 +4940,23 @@
       <c r="AH37" s="1"/>
       <c r="AM37" s="1"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>317.18146215120589</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>316.89840635418</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>316.61658414661002</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>316.3356801703099</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
         <v>316.05593744898999</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="1">
         <v>315.77727432108293</v>
       </c>
       <c r="G38" s="1">
@@ -2458,11 +4979,26 @@
         <f t="shared" si="4"/>
         <v>0.9955729196132731</v>
       </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+      <c r="M38" s="4">
+        <v>1623</v>
+      </c>
+      <c r="N38" s="4">
+        <v>317.18146215120589</v>
+      </c>
+      <c r="O38" s="4">
+        <v>314.73059699460572</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="5"/>
+        <v>0.99227298739346936</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>314.13116521206155</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="6"/>
+        <v>0.9903831172274179</v>
+      </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="Y38" s="1"/>
@@ -2473,23 +5009,23 @@
       <c r="AH38" s="1"/>
       <c r="AM38" s="1"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>316.87431833393731</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>316.59808269424002</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>316.32306388307001</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>316.04891210157416</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>315.77586608976998</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>315.50385040279849</v>
       </c>
       <c r="G39" s="1">
@@ -2512,11 +5048,26 @@
         <f t="shared" si="4"/>
         <v>0.99567504258993134</v>
       </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="2"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="M39" s="4">
+        <v>1682</v>
+      </c>
+      <c r="N39" s="4">
+        <v>316.87431833393731</v>
+      </c>
+      <c r="O39" s="4">
+        <v>314.48171698400529</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="5"/>
+        <v>0.99244936805698913</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>313.89630344358375</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99060190517801705</v>
+      </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="Y39" s="1"/>
@@ -2527,23 +5078,23 @@
       <c r="AH39" s="1"/>
       <c r="AM39" s="1"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>315.80218880311594</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>315.53397915707001</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>315.26684102467999</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>315.00053846433838</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="1">
         <v>314.73524075898001</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="1">
         <v>314.4709714950622</v>
       </c>
       <c r="G40" s="1">
@@ -2566,11 +5117,26 @@
         <f t="shared" si="4"/>
         <v>0.99578464825370894</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="2"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="M40" s="4">
+        <v>1743</v>
+      </c>
+      <c r="N40" s="4">
+        <v>315.80218880311594</v>
+      </c>
+      <c r="O40" s="4">
+        <v>313.47297327410928</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="5"/>
+        <v>0.99262444779805248</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>312.90261845562384</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99081839692599527</v>
+      </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="Y40" s="1"/>
@@ -2581,7 +5147,7 @@
       <c r="AH40" s="1"/>
       <c r="AM40" s="1"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2608,7 +5174,7 @@
       <c r="AH41" s="1"/>
       <c r="AM41" s="1"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2635,7 +5201,7 @@
       <c r="AH42" s="1"/>
       <c r="AM42" s="1"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2662,7 +5228,7 @@
       <c r="AH43" s="1"/>
       <c r="AM43" s="1"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2689,7 +5255,7 @@
       <c r="AH44" s="1"/>
       <c r="AM44" s="1"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2716,7 +5282,7 @@
       <c r="AH45" s="1"/>
       <c r="AM45" s="1"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2743,7 +5309,7 @@
       <c r="AH46" s="1"/>
       <c r="AM46" s="1"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2770,7 +5336,7 @@
       <c r="AH47" s="1"/>
       <c r="AM47" s="1"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2797,7 +5363,7 @@
       <c r="AH48" s="1"/>
       <c r="AM48" s="1"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2824,7 +5390,7 @@
       <c r="AH49" s="1"/>
       <c r="AM49" s="1"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2851,7 +5417,7 @@
       <c r="AH50" s="1"/>
       <c r="AM50" s="1"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2878,7 +5444,7 @@
       <c r="AH51" s="1"/>
       <c r="AM51" s="1"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2905,7 +5471,7 @@
       <c r="AH52" s="1"/>
       <c r="AM52" s="1"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2932,7 +5498,7 @@
       <c r="AH53" s="1"/>
       <c r="AM53" s="1"/>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2959,7 +5525,7 @@
       <c r="AH54" s="1"/>
       <c r="AM54" s="1"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2986,7 +5552,7 @@
       <c r="AH55" s="1"/>
       <c r="AM55" s="1"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3013,7 +5579,7 @@
       <c r="AH56" s="1"/>
       <c r="AM56" s="1"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3040,7 +5606,7 @@
       <c r="AH57" s="1"/>
       <c r="AM57" s="1"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3067,7 +5633,7 @@
       <c r="AH58" s="1"/>
       <c r="AM58" s="1"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3094,7 +5660,7 @@
       <c r="AH59" s="1"/>
       <c r="AM59" s="1"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3118,5 +5684,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>